--- a/sqldb/dic_values.xlsx
+++ b/sqldb/dic_values.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="148">
   <si>
     <t>hospital_id</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>умер</t>
+  </si>
+  <si>
+    <t>нет данных</t>
   </si>
 </sst>
 </file>
@@ -792,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,17 +815,17 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE("INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('",A2,"',",B2,",'",C2,"');")</f>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',1,'Алматинский ОЦ');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('no_data_id',-1,'нет данных');</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -830,14 +833,14 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D56" si="0">CONCATENATE("INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('",A3,"',",B3,",'",C3,"');")</f>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',2,'ВК ООД, г. Усть-Каменогорск');</v>
+        <f>CONCATENATE("INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('",A3,"',",B3,",'",C3,"');")</f>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',1,'Алматинский ОЦ');</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -845,14 +848,14 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',3,'Алматинский ООД, г. Талдыкорган');</v>
+        <f t="shared" ref="D4:D57" si="0">CONCATENATE("INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('",A4,"',",B4,",'",C4,"');")</f>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',2,'ВК ООД, г. Усть-Каменогорск');</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -860,14 +863,14 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',4,'Кызылординский ООД, г. Кзылорда');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',3,'Алматинский ООД, г. Талдыкорган');</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -875,29 +878,29 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',5,'ЮК ООД, г. Шымкент');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',4,'Кызылординский ООД, г. Кзылорда');</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('sex_id',1,'Мужской');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('hospital_id',5,'ЮК ООД, г. Шымкент');</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -905,29 +908,29 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('sex_id',2,'Женский');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('sex_id',1,'Мужской');</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('place_living_id',1,'город');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('sex_id',2,'Женский');</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -935,29 +938,29 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('place_living_id',2,'село');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('place_living_id',1,'город');</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('social_status_id',1,'Студент');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('place_living_id',2,'село');</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -965,14 +968,14 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('social_status_id',2,'Работает');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('social_status_id',1,'Студент');</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -980,14 +983,14 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('social_status_id',3,'Пенсионер');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('social_status_id',2,'Работает');</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -995,29 +998,29 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('social_status_id',4,'Другое');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('social_status_id',3,'Пенсионер');</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('immunohistochemical_study_id',0,'нет');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('social_status_id',4,'Другое');</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1025,14 +1028,14 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('immunohistochemical_study_id',1,'да');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('immunohistochemical_study_id',0,'нет');</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1040,14 +1043,14 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('immunohistochemical_study_id',2,'экспрессия EGFR');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('immunohistochemical_study_id',1,'да');</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1055,29 +1058,29 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('immunohistochemical_study_id',3,'экспрессия ALK');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('immunohistochemical_study_id',2,'экспрессия EGFR');</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',1,'T0');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('immunohistochemical_study_id',3,'экспрессия ALK');</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1085,14 +1088,14 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',2,'Tis');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',1,'T0');</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1100,14 +1103,14 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',3,'T1');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',2,'Tis');</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1115,14 +1118,14 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',4,'T2');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',3,'T1');</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1130,14 +1133,14 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',5,'T3');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',4,'T2');</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1145,14 +1148,14 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',6,'T4');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',5,'T3');</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1160,29 +1163,29 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',7,'Tx');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',6,'T4');</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',1,'N0');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_t_id',7,'Tx');</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1190,14 +1193,14 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',2,'N1');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',1,'N0');</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1205,14 +1208,14 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',3,'N2');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',2,'N1');</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1220,14 +1223,14 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',4,'N3');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',3,'N2');</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1235,29 +1238,29 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',5,'Nx');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',4,'N3');</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_m_id',1,'M0');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_n_id',5,'Nx');</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1265,14 +1268,14 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_m_id',2,'M1');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_m_id',1,'M0');</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1280,29 +1283,29 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_m_id',3,'Mx');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_m_id',2,'M1');</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_clin_stage_id',1,'I');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_tnm_stage_m_id',3,'Mx');</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1310,14 +1313,14 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_clin_stage_id',2,'II');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_clin_stage_id',1,'I');</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1325,14 +1328,14 @@
         <v>8</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_clin_stage_id',3,'III');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_clin_stage_id',2,'II');</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1340,29 +1343,29 @@
         <v>8</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_clin_stage_id',4,'IV');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_clin_stage_id',3,'III');</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',1,'0');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_clin_stage_id',4,'IV');</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1370,14 +1373,14 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',2,'1');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',1,'0');</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1385,14 +1388,14 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',3,'2');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',2,'1');</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1400,14 +1403,14 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',4,'3');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',3,'2');</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1415,29 +1418,29 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>-1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',-1,'неизвестно');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',4,'3');</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>137</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_status_id',1,'жив');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('diag_cancer_ecog_status_id',5,'неизвестно');</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1445,14 +1448,14 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_status_id',0,'умер');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_status_id',1,'жив');</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1460,29 +1463,29 @@
         <v>10</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_status_id',-1,'неизвестно');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_status_id',0,'умер');</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_if_died_cause_id',1,'прогрессирование основного заболевания');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_status_id',3,'неизвестно');</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1490,14 +1493,14 @@
         <v>11</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_if_died_cause_id',2,'осложнения противоопухолевой терапии ');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_if_died_cause_id',1,'прогрессирование основного заболевания');</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1505,29 +1508,29 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_if_died_cause_id',3,'другие причины');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_if_died_cause_id',2,'осложнения противоопухолевой терапии ');</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('neurotoxicity_level_id',1,'1 степень токсичности');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('patient_if_died_cause_id',3,'другие причины');</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1535,14 +1538,14 @@
         <v>140</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('neurotoxicity_level_id',2,'2 степень токсичности');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('neurotoxicity_level_id',1,'1 степень токсичности');</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1550,14 +1553,14 @@
         <v>140</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('neurotoxicity_level_id',3,'3 степень токсичности');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('neurotoxicity_level_id',2,'2 степень токсичности');</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1565,29 +1568,29 @@
         <v>140</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('neurotoxicity_level_id',4,'4 степень токсичности');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('neurotoxicity_level_id',3,'3 степень токсичности');</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('skin_toxicity_level_id',1,'1 степень токсичности');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('neurotoxicity_level_id',4,'4 степень токсичности');</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1595,14 +1598,14 @@
         <v>141</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('skin_toxicity_level_id',2,'2 степень токсичности');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('skin_toxicity_level_id',1,'1 степень токсичности');</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1610,14 +1613,14 @@
         <v>141</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('skin_toxicity_level_id',3,'3 степень токсичности');</v>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('skin_toxicity_level_id',2,'2 степень токсичности');</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1625,12 +1628,27 @@
         <v>141</v>
       </c>
       <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('skin_toxicity_level_id',3,'3 степень токсичности');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57">
         <v>4</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>145</v>
       </c>
-      <c r="D56" t="str">
+      <c r="D57" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO lung_dic_val (dic_list_id,value_id,value_name) VALUE ('skin_toxicity_level_id',4,'4 степень токсичности');</v>
       </c>
